--- a/back_end3.0/fund_viewer/input/客户C.xlsx
+++ b/back_end3.0/fund_viewer/input/客户C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\back_end3.0\fund_viewer\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alienware\Desktop\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD96157E-75BD-4579-85F0-3F8D80A33E45}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6E996BF-CDB9-4144-B6E7-2BA4354857BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3705" windowWidth="21645" windowHeight="10387" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1104" windowWidth="12168" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,19 +55,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>150528</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>150518</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>190221</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>购买金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170522</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>170102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -402,16 +402,16 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="D1" sqref="D1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="11.46484375" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,10 +419,10 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -433,34 +433,34 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C3" s="2">
         <v>150000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>250000</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
         <v>600000</v>
